--- a/LT_taphonomic_information.xlsx
+++ b/LT_taphonomic_information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Longtan-MP-PNAS\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8E7632-DB8F-4B10-ABB1-52291481297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4272209-D00A-4BDF-9C96-86091EFEC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{76F26050-34E3-4836-B646-3C407DCD39D3}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -663,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -695,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="1">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>9</v>
@@ -727,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
